--- a/Tables/Beta_group_significance_Stream.xlsx
+++ b/Tables/Beta_group_significance_Stream.xlsx
@@ -434,7 +434,7 @@
         <v>999</v>
       </c>
       <c r="E2" t="n">
-        <v>4.226656964772942</v>
+        <v>4.22099180635082</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -466,7 +466,7 @@
         <v>999</v>
       </c>
       <c r="E3" t="n">
-        <v>6.583874524411524</v>
+        <v>7.144241145310827</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -498,7 +498,7 @@
         <v>999</v>
       </c>
       <c r="E4" t="n">
-        <v>10.3295617275382</v>
+        <v>10.13108699498125</v>
       </c>
       <c r="F4" t="n">
         <v>0.001</v>
@@ -530,7 +530,7 @@
         <v>999</v>
       </c>
       <c r="E5" t="n">
-        <v>6.305280587949258</v>
+        <v>6.044788046584133</v>
       </c>
       <c r="F5" t="n">
         <v>0.001</v>
@@ -562,7 +562,7 @@
         <v>999</v>
       </c>
       <c r="E6" t="n">
-        <v>3.626778584333542</v>
+        <v>3.581301113084161</v>
       </c>
       <c r="F6" t="n">
         <v>0.001</v>
@@ -594,7 +594,7 @@
         <v>999</v>
       </c>
       <c r="E7" t="n">
-        <v>10.87830714894626</v>
+        <v>10.8476464422071</v>
       </c>
       <c r="F7" t="n">
         <v>0.001</v>
@@ -626,7 +626,7 @@
         <v>999</v>
       </c>
       <c r="E8" t="n">
-        <v>5.031322692986662</v>
+        <v>5.033496363401198</v>
       </c>
       <c r="F8" t="n">
         <v>0.001</v>
@@ -658,13 +658,13 @@
         <v>999</v>
       </c>
       <c r="E9" t="n">
-        <v>2.772646427101867</v>
+        <v>2.881999722414614</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.00375</v>
+        <v>0.0025</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -690,13 +690,13 @@
         <v>999</v>
       </c>
       <c r="E10" t="n">
-        <v>2.366664628443775</v>
+        <v>2.380743607023501</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006</v>
+        <v>0.014</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.006666666666666665</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -722,13 +722,13 @@
         <v>999</v>
       </c>
       <c r="E11" t="n">
-        <v>1.444047988831798</v>
+        <v>1.507498411901389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.139</v>
+        <v>0.133</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0.139</v>
+        <v>0.133</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>999</v>
       </c>
       <c r="E12" t="n">
-        <v>16.23527137205672</v>
+        <v>16.29361754972921</v>
       </c>
       <c r="F12" t="n">
         <v>0.001</v>
@@ -786,7 +786,7 @@
         <v>999</v>
       </c>
       <c r="E13" t="n">
-        <v>15.41777565256954</v>
+        <v>15.65402537301194</v>
       </c>
       <c r="F13" t="n">
         <v>0.001</v>
@@ -818,7 +818,7 @@
         <v>999</v>
       </c>
       <c r="E14" t="n">
-        <v>9.388176078356711</v>
+        <v>9.560102567112489</v>
       </c>
       <c r="F14" t="n">
         <v>0.001</v>
@@ -850,7 +850,7 @@
         <v>999</v>
       </c>
       <c r="E15" t="n">
-        <v>4.020740406781977</v>
+        <v>4.14974846932162</v>
       </c>
       <c r="F15" t="n">
         <v>0.001</v>
@@ -882,7 +882,7 @@
         <v>999</v>
       </c>
       <c r="E16" t="n">
-        <v>7.295952146747631</v>
+        <v>7.322697083789895</v>
       </c>
       <c r="F16" t="n">
         <v>0.001</v>
@@ -914,7 +914,7 @@
         <v>999</v>
       </c>
       <c r="E17" t="n">
-        <v>6.279693945651956</v>
+        <v>6.251493246914585</v>
       </c>
       <c r="F17" t="n">
         <v>0.001</v>
@@ -946,7 +946,7 @@
         <v>999</v>
       </c>
       <c r="E18" t="n">
-        <v>7.859867894725514</v>
+        <v>7.588921594740497</v>
       </c>
       <c r="F18" t="n">
         <v>0.001</v>
@@ -978,7 +978,7 @@
         <v>999</v>
       </c>
       <c r="E19" t="n">
-        <v>7.683187780678248</v>
+        <v>7.70977198010405</v>
       </c>
       <c r="F19" t="n">
         <v>0.001</v>
@@ -1010,7 +1010,7 @@
         <v>999</v>
       </c>
       <c r="E20" t="n">
-        <v>7.0561212441204</v>
+        <v>6.923125790138299</v>
       </c>
       <c r="F20" t="n">
         <v>0.001</v>
@@ -1042,7 +1042,7 @@
         <v>999</v>
       </c>
       <c r="E21" t="n">
-        <v>4.38616853239365</v>
+        <v>4.242178731174844</v>
       </c>
       <c r="F21" t="n">
         <v>0.001</v>

--- a/Tables/Beta_group_significance_Stream.xlsx
+++ b/Tables/Beta_group_significance_Stream.xlsx
@@ -434,7 +434,7 @@
         <v>999</v>
       </c>
       <c r="E2" t="n">
-        <v>4.22099180635082</v>
+        <v>4.083406150078668</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -466,7 +466,7 @@
         <v>999</v>
       </c>
       <c r="E3" t="n">
-        <v>7.144241145310827</v>
+        <v>7.110946498185514</v>
       </c>
       <c r="F3" t="n">
         <v>0.001</v>
@@ -498,7 +498,7 @@
         <v>999</v>
       </c>
       <c r="E4" t="n">
-        <v>10.13108699498125</v>
+        <v>10.26017554980502</v>
       </c>
       <c r="F4" t="n">
         <v>0.001</v>
@@ -530,7 +530,7 @@
         <v>999</v>
       </c>
       <c r="E5" t="n">
-        <v>6.044788046584133</v>
+        <v>5.981288960666151</v>
       </c>
       <c r="F5" t="n">
         <v>0.001</v>
@@ -562,7 +562,7 @@
         <v>999</v>
       </c>
       <c r="E6" t="n">
-        <v>3.581301113084161</v>
+        <v>3.547350313761885</v>
       </c>
       <c r="F6" t="n">
         <v>0.001</v>
@@ -594,7 +594,7 @@
         <v>999</v>
       </c>
       <c r="E7" t="n">
-        <v>10.8476464422071</v>
+        <v>10.91820628338189</v>
       </c>
       <c r="F7" t="n">
         <v>0.001</v>
@@ -626,7 +626,7 @@
         <v>999</v>
       </c>
       <c r="E8" t="n">
-        <v>5.033496363401198</v>
+        <v>5.033447988173603</v>
       </c>
       <c r="F8" t="n">
         <v>0.001</v>
@@ -658,13 +658,13 @@
         <v>999</v>
       </c>
       <c r="E9" t="n">
-        <v>2.881999722414614</v>
+        <v>2.883776193844222</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.0025</v>
+        <v>0.004444444444444445</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -690,13 +690,13 @@
         <v>999</v>
       </c>
       <c r="E10" t="n">
-        <v>2.380743607023501</v>
+        <v>2.378368095108534</v>
       </c>
       <c r="F10" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.01555555555555556</v>
+        <v>0.004444444444444445</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
         <v>1.507498411901389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.133</v>
+        <v>0.126</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0.133</v>
+        <v>0.126</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>999</v>
       </c>
       <c r="E12" t="n">
-        <v>16.29361754972921</v>
+        <v>16.32369960621812</v>
       </c>
       <c r="F12" t="n">
         <v>0.001</v>
@@ -786,7 +786,7 @@
         <v>999</v>
       </c>
       <c r="E13" t="n">
-        <v>15.65402537301194</v>
+        <v>15.54183971380953</v>
       </c>
       <c r="F13" t="n">
         <v>0.001</v>
@@ -818,7 +818,7 @@
         <v>999</v>
       </c>
       <c r="E14" t="n">
-        <v>9.560102567112489</v>
+        <v>9.449050815321602</v>
       </c>
       <c r="F14" t="n">
         <v>0.001</v>
@@ -850,7 +850,7 @@
         <v>999</v>
       </c>
       <c r="E15" t="n">
-        <v>4.14974846932162</v>
+        <v>4.109311091116523</v>
       </c>
       <c r="F15" t="n">
         <v>0.001</v>
@@ -882,7 +882,7 @@
         <v>999</v>
       </c>
       <c r="E16" t="n">
-        <v>7.322697083789895</v>
+        <v>7.279160948083104</v>
       </c>
       <c r="F16" t="n">
         <v>0.001</v>
@@ -914,7 +914,7 @@
         <v>999</v>
       </c>
       <c r="E17" t="n">
-        <v>6.251493246914585</v>
+        <v>6.256488129155477</v>
       </c>
       <c r="F17" t="n">
         <v>0.001</v>
@@ -946,7 +946,7 @@
         <v>999</v>
       </c>
       <c r="E18" t="n">
-        <v>7.588921594740497</v>
+        <v>7.656125819316437</v>
       </c>
       <c r="F18" t="n">
         <v>0.001</v>
@@ -978,7 +978,7 @@
         <v>999</v>
       </c>
       <c r="E19" t="n">
-        <v>7.70977198010405</v>
+        <v>7.618681469090247</v>
       </c>
       <c r="F19" t="n">
         <v>0.001</v>
@@ -1010,7 +1010,7 @@
         <v>999</v>
       </c>
       <c r="E20" t="n">
-        <v>6.923125790138299</v>
+        <v>6.961038887930381</v>
       </c>
       <c r="F20" t="n">
         <v>0.001</v>
@@ -1042,7 +1042,7 @@
         <v>999</v>
       </c>
       <c r="E21" t="n">
-        <v>4.242178731174844</v>
+        <v>4.308756609755021</v>
       </c>
       <c r="F21" t="n">
         <v>0.001</v>
